--- a/Tests/Ti-in-Quartz/dbimport/Inverse_natural_data.xlsx
+++ b/Tests/Ti-in-Quartz/dbimport/Inverse_natural_data.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miron\git\bucket\gemsfits\GEMSFITSDEPLOY\Gemsfits1.2.1\Tests\Ti-in-Quartz\dbimport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5113A-1687-4E31-B62E-FC711774A075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1670" yWindow="860" windowWidth="12930" windowHeight="7170" tabRatio="146" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -111,17 +116,19 @@
   </si>
   <si>
     <t>Bundner_low</t>
+  </si>
+  <si>
+    <t>STOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00E+000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,22 +136,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -160,7 +152,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -168,100 +160,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.06122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.29591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.30612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7397959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.30102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.62755102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.99489795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.015306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="7.71428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="26.7755102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.5765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.8724489795918"/>
+    <col min="1" max="1" width="3.08984375"/>
+    <col min="2" max="2" width="17.1796875"/>
+    <col min="3" max="3" width="19.453125"/>
+    <col min="4" max="4" width="10.90625"/>
+    <col min="5" max="5" width="7.54296875"/>
+    <col min="6" max="6" width="8.26953125"/>
+    <col min="7" max="7" width="6.90625"/>
+    <col min="8" max="8" width="6.26953125"/>
+    <col min="9" max="9" width="14.7265625"/>
+    <col min="10" max="10" width="7.26953125"/>
+    <col min="11" max="11" width="4.6328125"/>
+    <col min="12" max="12" width="12.6328125"/>
+    <col min="13" max="13" width="6.7265625"/>
+    <col min="14" max="14" width="6"/>
+    <col min="15" max="15" width="13"/>
+    <col min="16" max="17" width="7.7265625"/>
+    <col min="18" max="18" width="26.7265625"/>
+    <col min="19" max="19" width="7.54296875"/>
+    <col min="20" max="20" width="10.26953125"/>
+    <col min="21" max="1025" width="11.90625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="20.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,8 +577,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -335,44 +589,44 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>300</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>3000</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>1000</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2">
         <v>100</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2">
         <v>100</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>2.2757E-006</v>
+      <c r="R2" s="3">
+        <v>2.2757000000000001E-6</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -383,44 +637,44 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>300</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>1000</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2">
         <v>100</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="2">
         <v>100</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3" t="n">
-        <v>1.884E-006</v>
+      <c r="R3" s="3">
+        <v>1.8840000000000001E-6</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -431,44 +685,44 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>3000</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>1000</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="2">
         <v>100</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="3" t="n">
-        <v>6.5186E-006</v>
+      <c r="R4" s="3">
+        <v>6.5185999999999997E-6</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -479,44 +733,44 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>300</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>3000</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>1000</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="2">
         <v>100</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="3" t="n">
-        <v>6.8E-006</v>
+      <c r="R5" s="3">
+        <v>6.8000000000000001E-6</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -527,44 +781,44 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>300</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>2600</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>1000</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="2">
         <v>100</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="2" t="n">
-        <v>2.38641074733771E-007</v>
+      <c r="R6" s="2">
+        <v>2.3864107473377099E-7</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -575,44 +829,44 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>300</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>3000</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>1000</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>100</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="2">
         <v>100</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="2" t="n">
-        <v>6.02882499176419E-007</v>
+      <c r="R7" s="2">
+        <v>6.0288249917641899E-7</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -623,44 +877,44 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>300</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>3100</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>1000</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="2">
         <v>100</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="2" t="n">
-        <v>6.53122675174165E-007</v>
+      <c r="R8" s="2">
+        <v>6.5312267517416504E-7</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -671,44 +925,44 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>300</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>2800</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>1000</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="2">
         <v>100</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="2" t="n">
-        <v>6.78242761311485E-007</v>
+      <c r="R9" s="2">
+        <v>6.7824276131148496E-7</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -719,44 +973,44 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>300</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>3100</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>1000</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="2">
         <v>100</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="2" t="n">
-        <v>3.76801645755263E-007</v>
+      <c r="R10" s="2">
+        <v>3.7680164575526299E-7</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -767,44 +1021,44 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>300</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>3200</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>1000</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>100</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="2">
         <v>100</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="2" t="n">
-        <v>9.04323480700763E-007</v>
+      <c r="R11" s="2">
+        <v>9.0432348070076297E-7</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -815,44 +1069,44 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>300</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>3000</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>1000</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>100</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="2">
         <v>100</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="2" t="n">
-        <v>1.25910044695665E-006</v>
+      <c r="R12" s="2">
+        <v>1.2591004469566501E-6</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -863,44 +1117,44 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>300</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>3000</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>1000</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>100</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="2">
         <v>100</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="4" t="n">
-        <v>1.46006135944184E-006</v>
+      <c r="R13" s="4">
+        <v>1.46006135944184E-6</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:20" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -911,47 +1165,51 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>300</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>3000</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>1000</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="2">
         <v>100</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="2">
         <v>100</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="4" t="n">
-        <v>1.05813953447145E-006</v>
+      <c r="R14" s="4">
+        <v>1.05813953447145E-6</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
